--- a/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
+++ b/InputData/fuels/GbPbT/GWP by Pollutant by Timeframe.xlsx
@@ -1,163 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E8978B2DDCF3D240603EE7AC8DD369D6333A8DC1" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\fuels\GbPbT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="GbPbT" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" iterate="1" iterateDelta="1.0000000000000001E-5"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>IPCC Working Group 1</t>
+  </si>
+  <si>
+    <t>AR5 WG1: The Physical Science Basis</t>
+  </si>
+  <si>
+    <t>http://www.climatechange2013.org/images/report/WG1AR5_Chapter08_FINAL.pdf</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>PM10</t>
+  </si>
+  <si>
+    <t>PM25</t>
+  </si>
+  <si>
+    <t>SOx</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>20-Year GWP</t>
+  </si>
+  <si>
+    <t>p. 731, Table 8.A, Row 1</t>
+  </si>
+  <si>
+    <t>p. 731, Table 8.A, Row 4</t>
+  </si>
+  <si>
+    <t>p. 731, Table 8.A, Row 2</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>F gases</t>
+  </si>
+  <si>
+    <t>We take in F gas emissions in units of CO2e and do not attempt to convert them to</t>
+  </si>
+  <si>
+    <t>emissions of a "generic" F gas.  We simply work in units of CO2e when handling</t>
+  </si>
+  <si>
+    <t>F gases throughout the model, so their GWP is treated as 1.</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>p. 739, Table 8.A.3, Row 3 (NOx North America)</t>
+  </si>
+  <si>
+    <t>p. 740, Table 8.A.4, Row 3 (CO North America)</t>
+  </si>
+  <si>
+    <t>p. 740, Table 8.A.5, Row 3 (VOC North America)</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>GWP values for VOC, CO, and NOx vary by region.  These values should</t>
+  </si>
+  <si>
+    <t>if creating a version of the model for another country.</t>
+  </si>
+  <si>
+    <t>be updated (likely from the same IPCC source, using different rows in the table)</t>
+  </si>
+  <si>
+    <t>p. 740, Table 8.A.6, Row 2 (BC four regions)</t>
+  </si>
+  <si>
+    <t>p. 740, Table 8.A.6, Row 7 (OC four regions)</t>
+  </si>
+  <si>
+    <t>BC and OC values only include aerosol-radiation interaction.</t>
+  </si>
+  <si>
+    <t>100-Year GWP</t>
+  </si>
+  <si>
+    <t>No value is reported by the IPCC for SOx.</t>
+  </si>
+  <si>
+    <t>Source or Note</t>
+  </si>
+  <si>
+    <t>This is handled via BC and OC, below.  To include a value here would be double-counting.</t>
+  </si>
+  <si>
+    <t>twenty years</t>
+  </si>
+  <si>
+    <t>one hundred years</t>
+  </si>
+  <si>
     <t>GbPbT GWP by Pollutant by Timeframe</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>IPCC Working Group 1</t>
-  </si>
-  <si>
-    <t>AR5 WG1: The Physical Science Basis</t>
-  </si>
-  <si>
-    <t>http://www.climatechange2013.org/images/report/WG1AR5_Chapter08_FINAL.pdf</t>
-  </si>
-  <si>
     <t>See "Data" tab for page, table, and row numbers.</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>GWP values for VOC, CO, and NOx vary by region.  These values should</t>
-  </si>
-  <si>
-    <t>be updated (likely from the same IPCC source, using different rows in the table)</t>
-  </si>
-  <si>
-    <t>if creating a version of the model for another country.</t>
-  </si>
-  <si>
-    <t>BC and OC values only include aerosol-radiation interaction.</t>
-  </si>
-  <si>
-    <t>20-Year GWP</t>
-  </si>
-  <si>
-    <t>100-Year GWP</t>
-  </si>
-  <si>
-    <t>Source or Note</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>p. 731, Table 8.A, Row 1</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>p. 740, Table 8.A.5, Row 3 (VOC North America)</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>p. 740, Table 8.A.4, Row 3 (CO North America)</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>p. 739, Table 8.A.3, Row 3 (NOx North America)</t>
-  </si>
-  <si>
-    <t>PM10</t>
-  </si>
-  <si>
-    <t>This is handled via BC and OC, below.  To include a value here would be double-counting.</t>
-  </si>
-  <si>
-    <t>PM25</t>
-  </si>
-  <si>
-    <t>SOx</t>
-  </si>
-  <si>
-    <t>No value is reported by the IPCC for SOx.</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>p. 740, Table 8.A.6, Row 2 (BC four regions)</t>
-  </si>
-  <si>
-    <t>OC</t>
-  </si>
-  <si>
-    <t>p. 740, Table 8.A.6, Row 7 (OC four regions)</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>p. 731, Table 8.A, Row 2</t>
-  </si>
-  <si>
-    <t>N2O</t>
-  </si>
-  <si>
-    <t>p. 731, Table 8.A, Row 4</t>
-  </si>
-  <si>
-    <t>F gases</t>
-  </si>
-  <si>
-    <t>We take in F gas emissions in units of CO2e and do not attempt to convert them to</t>
-  </si>
-  <si>
-    <t>emissions of a "generic" F gas.  We simply work in units of CO2e when handling</t>
-  </si>
-  <si>
-    <t>F gases throughout the model, so their GWP is treated as 1.</t>
-  </si>
-  <si>
-    <t>Pollutant</t>
-  </si>
-  <si>
-    <t>twenty years</t>
-  </si>
-  <si>
-    <t>one hundred years</t>
+    <t>Global Warming Potential (g CO2e/g pollutant)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -226,6 +222,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -321,23 +320,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -373,23 +355,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,78 +530,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" customWidth="1"/>
+    <col min="3" max="3" width="41.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -644,32 +609,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="B11:D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="18.5703125" customWidth="1"/>
+    <col min="2" max="3" width="18.59765625" customWidth="1"/>
     <col min="4" max="4" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -678,12 +645,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>16.2</v>
@@ -692,12 +659,12 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>5.6</v>
@@ -706,12 +673,12 @@
         <v>1.8</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>-2.4</v>
@@ -720,12 +687,12 @@
         <v>-8.1999999999999993</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -734,12 +701,12 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -748,12 +715,12 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -762,12 +729,12 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4">
         <v>1200</v>
@@ -776,12 +743,12 @@
         <v>345</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4">
         <v>-160</v>
@@ -790,12 +757,12 @@
         <v>-46</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>84</v>
@@ -804,12 +771,12 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>264</v>
@@ -818,12 +785,12 @@
         <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -832,17 +799,17 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -859,25 +826,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
+    <row r="1" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="str">
         <f>Data!A2</f>
         <v>CO2</v>
@@ -891,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="str">
         <f>Data!A3</f>
         <v>VOC</v>
@@ -905,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="str">
         <f>Data!A4</f>
         <v>CO</v>
@@ -919,7 +886,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="str">
         <f>Data!A5</f>
         <v>NOx</v>
@@ -933,7 +900,7 @@
         <v>-8.1999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="str">
         <f>Data!A6</f>
         <v>PM10</v>
@@ -947,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="str">
         <f>Data!A7</f>
         <v>PM25</v>
@@ -961,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="str">
         <f>Data!A8</f>
         <v>SOx</v>
@@ -975,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="str">
         <f>Data!A9</f>
         <v>BC</v>
@@ -989,7 +956,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="str">
         <f>Data!A10</f>
         <v>OC</v>
@@ -1003,7 +970,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="str">
         <f>Data!A11</f>
         <v>CH4</v>
@@ -1017,7 +984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="str">
         <f>Data!A12</f>
         <v>N2O</v>
@@ -1031,7 +998,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="str">
         <f>Data!A13</f>
         <v>F gases</v>
@@ -1051,24 +1018,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1302,14 +1251,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2E61BA4-E216-448A-BFF2-9CC152A7F2C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDEC8853-0F31-48CE-AE22-9D543E236983}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85F11051-CB03-46C5-ABB1-658E95156A4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECAFF18D-97F9-430A-A878-46A901F86275}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A25B4635-6C44-4C5A-9801-F17573E54BD1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{190E7B7A-5355-4902-94AA-F435464F45A7}"/>
 </file>